--- a/ShoppingMall/res/sample.xlsx
+++ b/ShoppingMall/res/sample.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\korea202102_jspworkspace\ShoppingMall\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60BFB1B-E2DA-43C5-855D-F4DF8401E72D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D31CBB3-8779-46A5-9F38-B952E51DD1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="405" windowWidth="25440" windowHeight="15390" xr2:uid="{6AEA0DC5-9B8C-4E5C-92A7-A0F2044C3CAA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>product</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,14 @@
   </si>
   <si>
     <t>info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>product_img</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -153,7 +161,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +186,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -237,13 +251,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -256,14 +281,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,7 +619,7 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -592,20 +629,21 @@
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.3984375" customWidth="1"/>
-    <col min="8" max="8" width="10.8984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
     <col min="10" max="10" width="17.59765625" customWidth="1"/>
     <col min="11" max="11" width="10.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
@@ -626,6 +664,9 @@
       <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
+      <c r="H3" s="7" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
@@ -646,15 +687,22 @@
       <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H4" s="7" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B5" s="1">
         <v>23</v>
       </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>25000</v>
       </c>
       <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>
@@ -663,6 +711,7 @@
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
@@ -671,6 +720,7 @@
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
@@ -679,23 +729,24 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="F10" s="4" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="J10" s="4" t="s">
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="J10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
@@ -716,13 +767,13 @@
       <c r="H11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K11" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="L11" s="5" t="s">
         <v>23</v>
       </c>
     </row>
@@ -847,7 +898,7 @@
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="J10:L10"/>
-    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B2:H2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ShoppingMall/res/sample.xlsx
+++ b/ShoppingMall/res/sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\korea202102_jspworkspace\ShoppingMall\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D31CBB3-8779-46A5-9F38-B952E51DD1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6F8945-7C15-4392-B337-25DC7476AE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="405" windowWidth="25440" windowHeight="15390" xr2:uid="{6AEA0DC5-9B8C-4E5C-92A7-A0F2044C3CAA}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AEA0DC5-9B8C-4E5C-92A7-A0F2044C3CAA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>product</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -137,6 +137,10 @@
   </si>
   <si>
     <t>product_img</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8978877.jpg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -619,7 +623,7 @@
   <dimension ref="B2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="B10" sqref="B10:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -702,7 +706,9 @@
         <v>25000</v>
       </c>
       <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B6" s="1"/>

--- a/ShoppingMall/res/sample.xlsx
+++ b/ShoppingMall/res/sample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\korea202102_jspworkspace\ShoppingMall\res\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6F8945-7C15-4392-B337-25DC7476AE8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27F4A38F-3C35-48BC-BEC2-1527B4357C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6AEA0DC5-9B8C-4E5C-92A7-A0F2044C3CAA}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="54">
   <si>
     <t>product</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -141,6 +141,106 @@
   </si>
   <si>
     <t>8978877.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>detail_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 상세정보 order_detail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문요약정보 order_summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phone3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_summary_id ( fk )</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>받는사람 Receiver</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pay(결제금)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymethod</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymethod_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ea</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>price (구매당시)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -165,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,8 +296,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -266,13 +378,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -291,12 +412,18 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -304,6 +431,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -620,34 +768,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1418E03-00B1-43FC-AA6C-041A3E204BB4}">
-  <dimension ref="B2:L15"/>
+  <dimension ref="B2:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:L15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="21.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.69921875" customWidth="1"/>
+    <col min="6" max="6" width="16.8984375" customWidth="1"/>
     <col min="7" max="7" width="12.3984375" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="10" max="10" width="17.59765625" customWidth="1"/>
-    <col min="11" max="11" width="10.09765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" customWidth="1"/>
+    <col min="10" max="10" width="13.796875" customWidth="1"/>
+    <col min="11" max="11" width="13.59765625" customWidth="1"/>
+    <col min="12" max="12" width="8.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
@@ -668,7 +818,7 @@
       <c r="G3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -691,7 +841,7 @@
       <c r="G4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>27</v>
       </c>
     </row>
@@ -703,7 +853,7 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
-        <v>25000</v>
+        <v>13000</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
@@ -738,21 +888,21 @@
       <c r="H8" s="1"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="F10" s="6" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="J10" s="6" t="s">
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="J10" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
@@ -899,8 +1049,309 @@
         <v>38</v>
       </c>
     </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="J17" s="8"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="8"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1</v>
+      </c>
+      <c r="D20" s="7">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="E20" s="1">
+        <v>250000</v>
+      </c>
+      <c r="F20" s="6">
+        <v>23000</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="16">
+        <v>1</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="8"/>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B21" s="1"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="8"/>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="J22" s="8"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B24" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+      <c r="K24" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="L24" s="17"/>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="16">
+        <v>1</v>
+      </c>
+      <c r="D26" s="16">
+        <v>23</v>
+      </c>
+      <c r="E26" s="1">
+        <v>3</v>
+      </c>
+      <c r="F26" s="1">
+        <v>25000</v>
+      </c>
+      <c r="G26" s="7"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B27" s="1">
+        <v>2</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1</v>
+      </c>
+      <c r="D27" s="16">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1">
+        <v>1</v>
+      </c>
+      <c r="F27" s="1"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="K27" s="1">
+        <v>2</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="K28" s="1">
+        <v>3</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B31" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B32" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J32" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="16">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1">
+        <v>10</v>
+      </c>
+      <c r="I33" s="1">
+        <v>2877</v>
+      </c>
+      <c r="J33" s="1">
+        <v>8888</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="16"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="B24:I24"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="B18:J18"/>
+    <mergeCell ref="K24:L24"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="F10:H10"/>
     <mergeCell ref="J10:L10"/>
@@ -914,35 +1365,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F1C395-5682-45E1-9924-22CF87741670}">
-  <dimension ref="H11:I16"/>
+  <dimension ref="H11:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11:I16"/>
+      <selection activeCell="O12" sqref="O12:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="11" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="8:16" x14ac:dyDescent="0.4">
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="8:16" x14ac:dyDescent="0.4">
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="8:16" x14ac:dyDescent="0.4">
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="8:9" x14ac:dyDescent="0.4">
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="8:16" x14ac:dyDescent="0.4">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="8:16" x14ac:dyDescent="0.4">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="8:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="8:16" x14ac:dyDescent="0.4">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
